--- a/cea/databases/LATAM/components/CONVERSION.xlsx
+++ b/cea/databases/LATAM/components/CONVERSION.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F79F6FA-C2C3-1848-B468-A189856093F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3913BA6-A82A-B849-A3B6-2D6BD5963934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="8"/>
+    <workbookView xWindow="41640" yWindow="-3160" windowWidth="30240" windowHeight="17340" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
   <si>
     <t>Description</t>
   </si>
@@ -502,18 +502,27 @@
   </si>
   <si>
     <t>G_VALUE</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.0000000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -543,6 +552,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -613,18 +628,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -639,22 +654,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1085,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1202,88 +1218,87 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M2" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1297,10 +1312,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>10000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
@@ -1345,8 +1360,8 @@
         <v>0</v>
       </c>
       <c r="T3" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
@@ -1381,10 +1396,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="2">
         <v>200000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
@@ -1451,24 +1466,24 @@
         <v>5</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000</v>
+        <v>200000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10000000000</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
@@ -1480,28 +1495,28 @@
         <v>2E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J5" s="2">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
       <c r="K5" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L5" s="3">
-        <v>0.91809300000000005</v>
+        <v>0.93582299999999996</v>
       </c>
       <c r="M5" s="3">
-        <v>8.6257E-2</v>
+        <v>5.4288999999999997E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>-2.4459000000000002E-2</v>
+        <v>8.6770000000000007E-3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.8159999999999999E-3</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="P5" s="3">
-        <v>-1.26E-4</v>
+        <v>-1.1E-5</v>
       </c>
       <c r="Q5" s="4">
         <v>0.1</v>
@@ -1513,8 +1528,8 @@
         <v>0</v>
       </c>
       <c r="T5" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
@@ -1535,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1549,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>10000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200000</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
@@ -1597,8 +1612,8 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -1633,10 +1648,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="2">
         <v>200000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10000000000</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -1703,24 +1718,24 @@
         <v>5</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10000</v>
+        <v>200000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10000000000</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
@@ -1732,28 +1747,28 @@
         <v>2E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="J8" s="2">
-        <v>38.1</v>
+        <v>43.9</v>
       </c>
       <c r="K8" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L8" s="3">
-        <v>1.10044085</v>
+        <v>0.91809300000000005</v>
       </c>
       <c r="M8" s="3">
-        <v>-6.1423230000000002E-2</v>
+        <v>8.6257E-2</v>
       </c>
       <c r="N8" s="3">
-        <v>-4.4273200000000002E-3</v>
+        <v>-2.4459000000000002E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>6.3150399999999996E-4</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="P8" s="3">
-        <v>-1.9184000000000001E-5</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="Q8" s="4">
         <v>0.1</v>
@@ -1765,8 +1780,8 @@
         <v>0</v>
       </c>
       <c r="T8" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
@@ -1787,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -1801,10 +1816,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>10000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>30</v>
@@ -1849,8 +1864,8 @@
         <v>0</v>
       </c>
       <c r="T9" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U9" s="2">
         <v>1</v>
@@ -1885,10 +1900,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="2">
         <v>200000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10000000000</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>
@@ -1955,6 +1970,90 @@
         <v>5</v>
       </c>
       <c r="AA10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="J11" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.10044085</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-6.1423230000000002E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-4.4273200000000002E-3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.3150399999999996E-4</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-1.9184000000000001E-5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1967,7 +2066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2551,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2719,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3055,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3175,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -3345,7 +3444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3563,7 +3662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -3831,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3991,28 +4090,28 @@
       <c r="M2" s="8">
         <v>8000</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>192</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>0.87</v>
       </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
         <f>170/($E2*$F2)</f>
         <v>94.632447573624034</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <f>270/($E2*$F2)</f>
         <v>150.29859320516758</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <f>80/($E2*$F2)</f>
         <v>44.532916505234837</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <v>3680</v>
       </c>
       <c r="U2" s="2">
@@ -4096,28 +4195,28 @@
       <c r="M3" s="8">
         <v>39000</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>196</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>0.91</v>
       </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <f>8000/($E3*$F3)</f>
         <v>2825.9464271206075</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f>22000/($E3*$F3)</f>
         <v>7771.3526745816707</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <f>2000/($E3*$F3)</f>
         <v>706.48660678015187</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>3680</v>
       </c>
       <c r="U3" s="2">
@@ -4170,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4292,7 +4391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -4507,7 +4606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4594,7 +4693,7 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>0.74299999999999999</v>
       </c>
       <c r="I2" s="2">
@@ -4618,49 +4717,49 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>5000000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>50000000</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
         <v>20</v>
       </c>
-      <c r="M3" s="12">
-        <v>5</v>
-      </c>
-      <c r="N3" s="12">
-        <v>5</v>
-      </c>
-      <c r="O3" s="12"/>
+      <c r="M3" s="11">
+        <v>5</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5</v>
+      </c>
+      <c r="O3" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4671,7 +4770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4840,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4959,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5100,10 +5199,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5270,7 +5369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -5321,10 +5420,10 @@
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K23" s="13"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K25" s="13"/>
+      <c r="K25" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/cea/databases/LATAM/components/CONVERSION.xlsx
+++ b/cea/databases/LATAM/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jimeno/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3913BA6-A82A-B849-A3B6-2D6BD5963934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15D4EF-E836-CA46-BE4F-62DF6A092898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41640" yWindow="-3160" windowWidth="30240" windowHeight="17340" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,14 @@
     <sheet name="Furnace" sheetId="5" r:id="rId5"/>
     <sheet name="FC" sheetId="6" r:id="rId6"/>
     <sheet name="CCGT" sheetId="7" r:id="rId7"/>
-    <sheet name="Chiller_configuration" sheetId="16" r:id="rId8"/>
-    <sheet name="Chiller" sheetId="8" r:id="rId9"/>
-    <sheet name="Absorption_chiller" sheetId="9" r:id="rId10"/>
-    <sheet name="CT" sheetId="10" r:id="rId11"/>
-    <sheet name="HEX" sheetId="11" r:id="rId12"/>
-    <sheet name="BH" sheetId="12" r:id="rId13"/>
-    <sheet name="HP" sheetId="13" r:id="rId14"/>
-    <sheet name="TES" sheetId="14" r:id="rId15"/>
-    <sheet name="Pump" sheetId="15" r:id="rId16"/>
+    <sheet name="Chiller" sheetId="8" r:id="rId8"/>
+    <sheet name="Absorption_chiller" sheetId="9" r:id="rId9"/>
+    <sheet name="CT" sheetId="10" r:id="rId10"/>
+    <sheet name="HEX" sheetId="11" r:id="rId11"/>
+    <sheet name="BH" sheetId="12" r:id="rId12"/>
+    <sheet name="HP" sheetId="13" r:id="rId13"/>
+    <sheet name="TES" sheetId="14" r:id="rId14"/>
+    <sheet name="Pump" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -442,63 +441,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fit based on RESCUE WP 2.4. Figure 18 </t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>COMPRESSOR</t>
-  </si>
-  <si>
-    <t>plf_a</t>
-  </si>
-  <si>
-    <t>plf_b</t>
-  </si>
-  <si>
-    <t>plf_c</t>
-  </si>
-  <si>
-    <t>q_a</t>
-  </si>
-  <si>
-    <t>q_b</t>
-  </si>
-  <si>
-    <t>q_c</t>
-  </si>
-  <si>
-    <t>q_d</t>
-  </si>
-  <si>
-    <t>q_e</t>
-  </si>
-  <si>
-    <t>q_f</t>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>CH_T0</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>https://comnet.org/index.php/382-chillers</t>
-  </si>
-  <si>
-    <t>CH_T1</t>
-  </si>
-  <si>
-    <t>CENTRIFUGAL</t>
   </si>
   <si>
     <t>G_VALUE</t>
@@ -668,10 +610,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1104,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1220,85 +1162,85 @@
     </row>
     <row r="2" spans="1:27" s="14" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -2066,590 +2008,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W2" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="2">
-        <v>51150</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1176000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>68.12</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-3281.1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>88.05</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-4216.1000000000004</v>
-      </c>
-      <c r="U3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="W3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>58150</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W4" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2">
-        <v>58150</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1337450</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-1350.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-917.3</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="V5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="X5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1337450</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-1350.5</v>
-      </c>
-      <c r="S6" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-917.3</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="V6" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="X6" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="2">
-        <v>116300</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1628200</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>25</v>
-      </c>
-      <c r="N7" s="2">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="R7" s="2">
-        <v>-1171.7</v>
-      </c>
-      <c r="S7" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="T7" s="2">
-        <v>-504.2</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="V7" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="W7" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="X7" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>62</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2817,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -3153,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3273,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3443,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -3661,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -5058,151 +4416,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2">
-        <v>0.33018832999999997</v>
-      </c>
-      <c r="E2">
-        <v>0.23554290999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.46070828000000003</v>
-      </c>
-      <c r="G2">
-        <v>0.33269598</v>
-      </c>
-      <c r="H2">
-        <v>7.2911599999999997E-3</v>
-      </c>
-      <c r="I2">
-        <v>-4.9938000000000001E-4</v>
-      </c>
-      <c r="J2">
-        <v>1.598983E-2</v>
-      </c>
-      <c r="K2">
-        <v>-2.8254000000000002E-4</v>
-      </c>
-      <c r="L2">
-        <v>5.2346000000000001E-4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3">
-        <v>0.17149273000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.58820207999999996</v>
-      </c>
-      <c r="F3">
-        <v>0.23737257</v>
-      </c>
-      <c r="G3">
-        <v>-0.29861976000000001</v>
-      </c>
-      <c r="H3">
-        <v>2.9960759999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>-8.0124999999999999E-4</v>
-      </c>
-      <c r="J3">
-        <v>1.7362679999999998E-2</v>
-      </c>
-      <c r="K3">
-        <v>-3.2605999999999998E-4</v>
-      </c>
-      <c r="L3">
-        <v>6.3139000000000001E-4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5225,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5424,6 +4641,590 @@
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K25" s="12"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51150</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2">
+        <v>51150</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1176000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>68.12</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-3281.1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>88.05</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-4216.1000000000004</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2">
+        <v>58150</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1337450</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1350.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-917.3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="X5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1337450</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1350.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-917.3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="X6" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>116300</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1628200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-1171.7</v>
+      </c>
+      <c r="S7" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-504.2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="W7" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>62</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/cea/databases/LATAM/components/CONVERSION.xlsx
+++ b/cea/databases/LATAM/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jimeno/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15D4EF-E836-CA46-BE4F-62DF6A092898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5256C7A-C570-6E4D-ABA0-C78B6A05F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" tabRatio="993" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>HP3</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I8" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2792,6 +2795,52 @@
         <v>6</v>
       </c>
       <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>70.8/0.902</f>
+        <v>78.492239467849217</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4419,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
